--- a/target/classes/data/Partidos.xlsx
+++ b/target/classes/data/Partidos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>categoria_grupo</t>
   </si>
@@ -38,6 +38,9 @@
     <t>colegio_arbitros</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t/>
   </si>
   <si>
+    <t>3886eed7-cd52-40a2-b798-0a6847c10bc3</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
     <t>Atanacio Girardot</t>
   </si>
   <si>
+    <t>9e180242-d0bb-4213-8c56-de80b366ebac</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
@@ -101,6 +110,9 @@
     <t>ESTADIO MUNICIPAL</t>
   </si>
   <si>
+    <t>132bb75c-407a-4b43-b31f-9446e06370fc</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -119,6 +131,9 @@
     <t>CANCHA LAS MARGARITAS</t>
   </si>
   <si>
+    <t>138c0565-3dd7-41a6-b7d4-3c8a8ced0074</t>
+  </si>
+  <si>
     <t>MEDELLÍN</t>
   </si>
   <si>
@@ -135,6 +150,9 @@
   </si>
   <si>
     <t>CANCHA MARTE #2</t>
+  </si>
+  <si>
+    <t>ce7c7725-c7e3-485d-a095-e83fd37ca1bb</t>
   </si>
 </sst>
 </file>
@@ -179,7 +197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -210,135 +228,153 @@
       <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
